--- a/data/zenodo_ivan/generation/CHE_gen_oil.xlsx
+++ b/data/zenodo_ivan/generation/CHE_gen_oil.xlsx
@@ -28,7 +28,7 @@
     <t>CHE_gen_oil.xlsx</t>
   </si>
   <si>
-    <t>2023-01-05 18:35:30</t>
+    <t>2023-01-06 14:43:57</t>
   </si>
   <si>
     <t>Ivan Ruiz Manuel</t>

--- a/data/zenodo_ivan/generation/CHE_gen_oil.xlsx
+++ b/data/zenodo_ivan/generation/CHE_gen_oil.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/generation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3AFE0-CC82-6C40-B51D-E581D9B27FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="-2860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="30">
   <si>
     <t>Name:</t>
   </si>
@@ -91,9 +107,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>TODO: find</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
@@ -104,13 +117,16 @@
   </si>
   <si>
     <t>Bundesamt für Energie BFE, Schweizerische Gesamtenergiestatistik 2020</t>
+  </si>
+  <si>
+    <t>This is a temporary file!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,11 +189,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +275,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,6 +327,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,15 +537,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,7 +597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -549,16 +614,16 @@
         <v>7.456037781</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -572,19 +637,19 @@
         <v>1991</v>
       </c>
       <c r="H7">
-        <v>7.610834413</v>
+        <v>7.6108344130000001</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -598,19 +663,19 @@
         <v>1992</v>
       </c>
       <c r="H8">
-        <v>6.501458549</v>
+        <v>6.5014585489999996</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -624,19 +689,19 @@
         <v>1993</v>
       </c>
       <c r="H9">
-        <v>6.062868092</v>
+        <v>6.0628680920000004</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -653,16 +718,16 @@
         <v>5.030890544</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -676,19 +741,19 @@
         <v>1995</v>
       </c>
       <c r="H11">
-        <v>4.489102332</v>
+        <v>4.4891023319999999</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -702,19 +767,19 @@
         <v>1996</v>
       </c>
       <c r="H12">
-        <v>5.985469775</v>
+        <v>5.9854697750000003</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -728,19 +793,19 @@
         <v>1997</v>
       </c>
       <c r="H13">
-        <v>6.733653497</v>
+        <v>6.7336534969999997</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -757,16 +822,16 @@
         <v>4.979291667</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -780,19 +845,19 @@
         <v>1999</v>
       </c>
       <c r="H15">
-        <v>5.959670337</v>
+        <v>5.9596703370000004</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -809,16 +874,16 @@
         <v>10.91316256</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -835,16 +900,16 @@
         <v>9.777987263</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -858,19 +923,19 @@
         <v>2002</v>
       </c>
       <c r="H18">
-        <v>8.359018134999999</v>
+        <v>8.3590181349999995</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -884,19 +949,19 @@
         <v>2003</v>
       </c>
       <c r="H19">
-        <v>9.210399611</v>
+        <v>9.2103996109999997</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -913,16 +978,16 @@
         <v>10.96476144</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -936,19 +1001,19 @@
         <v>2005</v>
       </c>
       <c r="H21">
-        <v>15.60866041</v>
+        <v>15.608660410000001</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -962,19 +1027,19 @@
         <v>2006</v>
       </c>
       <c r="H22">
-        <v>17.64681606</v>
+        <v>17.646816059999999</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -988,19 +1053,19 @@
         <v>2007</v>
       </c>
       <c r="H23">
-        <v>17.49201943</v>
+        <v>17.492019429999999</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1014,19 +1079,19 @@
         <v>2008</v>
       </c>
       <c r="H24">
-        <v>23.2710937</v>
+        <v>23.271093700000002</v>
       </c>
       <c r="I24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1043,16 +1108,16 @@
         <v>14.21549072</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1069,16 +1134,16 @@
         <v>18.36920035</v>
       </c>
       <c r="I26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1092,19 +1157,19 @@
         <v>2011</v>
       </c>
       <c r="H27">
-        <v>21.61992962</v>
+        <v>21.619929620000001</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1118,19 +1183,19 @@
         <v>2012</v>
       </c>
       <c r="H28">
-        <v>23.32269257</v>
+        <v>23.322692570000001</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1144,19 +1209,19 @@
         <v>2013</v>
       </c>
       <c r="H29">
-        <v>22.44551166</v>
+        <v>22.445511660000001</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1170,19 +1235,19 @@
         <v>2014</v>
       </c>
       <c r="H30">
-        <v>22.88410212</v>
+        <v>22.884102120000001</v>
       </c>
       <c r="I30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1196,19 +1261,19 @@
         <v>2015</v>
       </c>
       <c r="H31">
-        <v>17.54361831</v>
+        <v>17.543618309999999</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1222,19 +1287,19 @@
         <v>2016</v>
       </c>
       <c r="H32">
-        <v>16.69223683</v>
+        <v>16.692236829999999</v>
       </c>
       <c r="I32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1251,16 +1316,16 @@
         <v>18.85938968</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1274,19 +1339,19 @@
         <v>2018</v>
       </c>
       <c r="H34">
-        <v>23.01309931</v>
+        <v>23.013099310000001</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1300,19 +1365,19 @@
         <v>2019</v>
       </c>
       <c r="H35">
-        <v>22.0069212</v>
+        <v>22.006921200000001</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1325,11 +1390,8 @@
       <c r="F36">
         <v>1990</v>
       </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1342,11 +1404,8 @@
       <c r="F37">
         <v>1991</v>
       </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1359,11 +1418,8 @@
       <c r="F38">
         <v>1992</v>
       </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1376,11 +1432,8 @@
       <c r="F39">
         <v>1993</v>
       </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1393,11 +1446,8 @@
       <c r="F40">
         <v>1994</v>
       </c>
-      <c r="H40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1410,11 +1460,8 @@
       <c r="F41">
         <v>1995</v>
       </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1427,11 +1474,8 @@
       <c r="F42">
         <v>1996</v>
       </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1444,11 +1488,8 @@
       <c r="F43">
         <v>1997</v>
       </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1461,11 +1502,8 @@
       <c r="F44">
         <v>1998</v>
       </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1478,11 +1516,8 @@
       <c r="F45">
         <v>1999</v>
       </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1495,11 +1530,8 @@
       <c r="F46">
         <v>2000</v>
       </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1512,11 +1544,8 @@
       <c r="F47">
         <v>2001</v>
       </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1529,11 +1558,8 @@
       <c r="F48">
         <v>2002</v>
       </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1546,11 +1572,8 @@
       <c r="F49">
         <v>2003</v>
       </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1563,11 +1586,8 @@
       <c r="F50">
         <v>2004</v>
       </c>
-      <c r="H50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1580,11 +1600,8 @@
       <c r="F51">
         <v>2005</v>
       </c>
-      <c r="H51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1597,11 +1614,8 @@
       <c r="F52">
         <v>2006</v>
       </c>
-      <c r="H52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1614,11 +1628,8 @@
       <c r="F53">
         <v>2007</v>
       </c>
-      <c r="H53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1631,11 +1642,8 @@
       <c r="F54">
         <v>2008</v>
       </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1648,11 +1656,8 @@
       <c r="F55">
         <v>2009</v>
       </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1665,11 +1670,8 @@
       <c r="F56">
         <v>2010</v>
       </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1682,11 +1684,8 @@
       <c r="F57">
         <v>2011</v>
       </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1699,11 +1698,8 @@
       <c r="F58">
         <v>2012</v>
       </c>
-      <c r="H58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1716,11 +1712,8 @@
       <c r="F59">
         <v>2013</v>
       </c>
-      <c r="H59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1733,11 +1726,8 @@
       <c r="F60">
         <v>2014</v>
       </c>
-      <c r="H60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1750,11 +1740,8 @@
       <c r="F61">
         <v>2015</v>
       </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1767,11 +1754,8 @@
       <c r="F62">
         <v>2016</v>
       </c>
-      <c r="H62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -1784,11 +1768,8 @@
       <c r="F63">
         <v>2017</v>
       </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -1801,11 +1782,8 @@
       <c r="F64">
         <v>2018</v>
       </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1818,11 +1796,8 @@
       <c r="F65">
         <v>2019</v>
       </c>
-      <c r="H65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1835,11 +1810,8 @@
       <c r="F66">
         <v>1990</v>
       </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -1852,11 +1824,8 @@
       <c r="F67">
         <v>1991</v>
       </c>
-      <c r="H67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -1869,11 +1838,8 @@
       <c r="F68">
         <v>1992</v>
       </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -1886,11 +1852,8 @@
       <c r="F69">
         <v>1993</v>
       </c>
-      <c r="H69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1903,11 +1866,8 @@
       <c r="F70">
         <v>1994</v>
       </c>
-      <c r="H70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1920,11 +1880,8 @@
       <c r="F71">
         <v>1995</v>
       </c>
-      <c r="H71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1937,11 +1894,8 @@
       <c r="F72">
         <v>1996</v>
       </c>
-      <c r="H72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1954,11 +1908,8 @@
       <c r="F73">
         <v>1997</v>
       </c>
-      <c r="H73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1971,11 +1922,8 @@
       <c r="F74">
         <v>1998</v>
       </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -1988,11 +1936,8 @@
       <c r="F75">
         <v>1999</v>
       </c>
-      <c r="H75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2005,11 +1950,8 @@
       <c r="F76">
         <v>2000</v>
       </c>
-      <c r="H76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2022,11 +1964,8 @@
       <c r="F77">
         <v>2001</v>
       </c>
-      <c r="H77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2039,11 +1978,8 @@
       <c r="F78">
         <v>2002</v>
       </c>
-      <c r="H78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -2056,11 +1992,8 @@
       <c r="F79">
         <v>2003</v>
       </c>
-      <c r="H79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2073,11 +2006,8 @@
       <c r="F80">
         <v>2004</v>
       </c>
-      <c r="H80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2090,11 +2020,8 @@
       <c r="F81">
         <v>2005</v>
       </c>
-      <c r="H81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -2107,11 +2034,8 @@
       <c r="F82">
         <v>2006</v>
       </c>
-      <c r="H82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -2124,11 +2048,8 @@
       <c r="F83">
         <v>2007</v>
       </c>
-      <c r="H83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2141,11 +2062,8 @@
       <c r="F84">
         <v>2008</v>
       </c>
-      <c r="H84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2158,11 +2076,8 @@
       <c r="F85">
         <v>2009</v>
       </c>
-      <c r="H85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -2175,11 +2090,8 @@
       <c r="F86">
         <v>2010</v>
       </c>
-      <c r="H86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2192,11 +2104,8 @@
       <c r="F87">
         <v>2011</v>
       </c>
-      <c r="H87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2209,11 +2118,8 @@
       <c r="F88">
         <v>2012</v>
       </c>
-      <c r="H88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2226,11 +2132,8 @@
       <c r="F89">
         <v>2013</v>
       </c>
-      <c r="H89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2243,11 +2146,8 @@
       <c r="F90">
         <v>2014</v>
       </c>
-      <c r="H90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -2260,11 +2160,8 @@
       <c r="F91">
         <v>2015</v>
       </c>
-      <c r="H91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2277,11 +2174,8 @@
       <c r="F92">
         <v>2016</v>
       </c>
-      <c r="H92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2294,11 +2188,8 @@
       <c r="F93">
         <v>2017</v>
       </c>
-      <c r="H93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2311,11 +2202,8 @@
       <c r="F94">
         <v>2018</v>
       </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2328,11 +2216,8 @@
       <c r="F95">
         <v>2019</v>
       </c>
-      <c r="H95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2346,10 +2231,10 @@
         <v>1990</v>
       </c>
       <c r="H96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2363,10 +2248,10 @@
         <v>1991</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2380,10 +2265,10 @@
         <v>1992</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -2397,10 +2282,10 @@
         <v>1993</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -2414,10 +2299,10 @@
         <v>1994</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -2431,10 +2316,10 @@
         <v>1995</v>
       </c>
       <c r="H101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -2448,10 +2333,10 @@
         <v>1996</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -2465,10 +2350,10 @@
         <v>1997</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2482,10 +2367,10 @@
         <v>1998</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -2499,10 +2384,10 @@
         <v>1999</v>
       </c>
       <c r="H105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2516,10 +2401,10 @@
         <v>2000</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2533,10 +2418,10 @@
         <v>2001</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -2550,10 +2435,10 @@
         <v>2002</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -2567,10 +2452,10 @@
         <v>2003</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -2584,10 +2469,10 @@
         <v>2004</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -2601,10 +2486,10 @@
         <v>2005</v>
       </c>
       <c r="H111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -2618,10 +2503,10 @@
         <v>2006</v>
       </c>
       <c r="H112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -2635,10 +2520,10 @@
         <v>2007</v>
       </c>
       <c r="H113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -2652,10 +2537,10 @@
         <v>2008</v>
       </c>
       <c r="H114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -2669,10 +2554,10 @@
         <v>2009</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -2686,10 +2571,10 @@
         <v>2010</v>
       </c>
       <c r="H116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -2703,10 +2588,10 @@
         <v>2011</v>
       </c>
       <c r="H117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -2720,10 +2605,10 @@
         <v>2012</v>
       </c>
       <c r="H118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -2737,10 +2622,10 @@
         <v>2013</v>
       </c>
       <c r="H119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -2754,10 +2639,10 @@
         <v>2014</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -2771,10 +2656,10 @@
         <v>2015</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -2788,10 +2673,10 @@
         <v>2016</v>
       </c>
       <c r="H122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -2805,10 +2690,10 @@
         <v>2017</v>
       </c>
       <c r="H123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -2822,10 +2707,10 @@
         <v>2018</v>
       </c>
       <c r="H124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -2839,7 +2724,7 @@
         <v>2019</v>
       </c>
       <c r="H125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
